--- a/COP4331 SP Gantt Chart.xlsx
+++ b/COP4331 SP Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C15FB-FCE9-4760-ACBB-D17426E60DCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2119AB3E-9E8C-4F9D-9FC1-153F07ECA71A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -929,6 +929,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -941,13 +948,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1516,9 +1516,9 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1547,9 +1547,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="47"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
@@ -1558,9 +1556,7 @@
       <c r="B2" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="61" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
@@ -1569,117 +1565,117 @@
       <c r="B3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
         <v>43963</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>43962</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>43969</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>43976</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>43983</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>43990</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>43997</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>44004</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>44011</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43962</v>
@@ -2927,7 +2923,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E17" s="68">
         <v>43969</v>
@@ -3006,7 +3002,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="68">
         <v>43970</v>
@@ -3085,7 +3081,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="68">
         <v>43971</v>
@@ -3164,7 +3160,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="68">
         <v>43972</v>
@@ -3243,7 +3239,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="68">
         <v>43973</v>
@@ -3322,7 +3318,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="68"/>
@@ -3467,7 +3463,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="69">
         <v>43974</v>
@@ -3546,7 +3542,7 @@
         <v>64</v>
       </c>
       <c r="D25" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="69">
         <v>43975</v>
@@ -3625,7 +3621,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="69">
         <v>43976</v>
@@ -3704,7 +3700,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="69">
         <v>43977</v>
@@ -3783,7 +3779,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="69">
         <v>43978</v>
@@ -3859,7 +3855,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="69">
         <v>43979</v>
@@ -3935,7 +3931,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="69">
         <v>43980</v>
@@ -4161,11 +4157,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4173,6 +4164,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">
@@ -4206,13 +4202,9 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
